--- a/doc/calculations.xlsx
+++ b/doc/calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwesTechnik\stepup-test\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199E7E00-5197-47B8-98F6-FFB34C7C31C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A21D643-089E-441D-B65D-07BB17B3B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="300" windowWidth="18375" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>U_in [V]</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>3. D + (100nF || 12k) spike-smoothing</t>
+  </si>
+  <si>
+    <t>With "Level 6: The gate driver"</t>
+  </si>
+  <si>
+    <t>7 gates of 74HC08 in parallel, to drive the FET.</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Conclusion: The edges are sharper by ~factor 2. The efficiency stays the same. There is nearly no heating of the FET.</t>
+  </si>
+  <si>
+    <t>With "Level 7: Voltage regulation"</t>
   </si>
 </sst>
 </file>
@@ -175,6 +193,138 @@
         <a:xfrm>
           <a:off x="6115202" y="85725"/>
           <a:ext cx="5001804" cy="3753849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441317</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD82CE8-776B-1AD4-E8FE-0B98205138A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5988229" y="4616822"/>
+          <a:ext cx="4466859" cy="3075688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174812</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246178</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5344B52-9A90-9965-9DCD-8253113EA4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1385047" y="4639236"/>
+          <a:ext cx="4408043" cy="3082548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47452</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589651</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>137158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495F02DB-A611-17BF-3226-C12B70190262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257687" y="11127439"/>
+          <a:ext cx="7176082" cy="5392719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J16"/>
+  <dimension ref="B2:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,27 +689,27 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <f>E6*E7</f>
+        <f t="shared" ref="E8:J8" si="0">E6*E7</f>
         <v>8.82</v>
       </c>
       <c r="F8">
-        <f>F6*F7</f>
+        <f t="shared" si="0"/>
         <v>7.7279999999999989</v>
       </c>
       <c r="G8">
-        <f>G6*G7</f>
+        <f t="shared" si="0"/>
         <v>6.375</v>
       </c>
       <c r="H8">
-        <f>H6*H7</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="I8">
-        <f>I6*I7</f>
+        <f t="shared" si="0"/>
         <v>3.88</v>
       </c>
       <c r="J8">
-        <f>J6*J7</f>
+        <f t="shared" si="0"/>
         <v>2.2199999999999998</v>
       </c>
     </row>
@@ -615,27 +765,27 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <f>E10/E11</f>
+        <f t="shared" ref="E12:J12" si="1">E10/E11</f>
         <v>6.65</v>
       </c>
       <c r="F12">
-        <f>F10/F11</f>
+        <f t="shared" si="1"/>
         <v>6.41</v>
       </c>
       <c r="G12">
-        <f>G10/G11</f>
+        <f t="shared" si="1"/>
         <v>5.88</v>
       </c>
       <c r="H12">
-        <f>H10/H11</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="I12">
-        <f>I10/I11</f>
+        <f t="shared" si="1"/>
         <v>4.6900000000000004</v>
       </c>
       <c r="J12">
-        <f>J10/J11</f>
+        <f t="shared" si="1"/>
         <v>3.59</v>
       </c>
     </row>
@@ -644,27 +794,27 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <f>E10*E12/1000</f>
+        <f t="shared" ref="E13:J13" si="2">E10*E12/1000</f>
         <v>4.42225</v>
       </c>
       <c r="F13" s="1">
-        <f>F10*F12/1000</f>
+        <f t="shared" si="2"/>
         <v>4.1088100000000001</v>
       </c>
       <c r="G13" s="1">
-        <f>G10*G12/1000</f>
+        <f t="shared" si="2"/>
         <v>3.4574400000000001</v>
       </c>
       <c r="H13" s="1">
-        <f>H10*H12/1000</f>
+        <f t="shared" si="2"/>
         <v>2.7562500000000001</v>
       </c>
       <c r="I13" s="1">
-        <f>I10*I12/1000</f>
+        <f t="shared" si="2"/>
         <v>2.1996100000000003</v>
       </c>
       <c r="J13" s="1">
-        <f>J10*J12/1000</f>
+        <f t="shared" si="2"/>
         <v>1.28881</v>
       </c>
     </row>
@@ -681,27 +831,27 @@
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <f>E8-E13</f>
+        <f t="shared" ref="E15:J15" si="3">E8-E13</f>
         <v>4.3977500000000003</v>
       </c>
       <c r="F15" s="1">
-        <f>F8-F13</f>
+        <f t="shared" si="3"/>
         <v>3.6191899999999988</v>
       </c>
       <c r="G15" s="1">
-        <f>G8-G13</f>
+        <f t="shared" si="3"/>
         <v>2.9175599999999999</v>
       </c>
       <c r="H15" s="1">
-        <f>H8-H13</f>
+        <f t="shared" si="3"/>
         <v>2.1937500000000001</v>
       </c>
       <c r="I15" s="1">
-        <f>I8-I13</f>
+        <f t="shared" si="3"/>
         <v>1.6803899999999996</v>
       </c>
       <c r="J15" s="1">
-        <f>J8-J13</f>
+        <f t="shared" si="3"/>
         <v>0.93118999999999974</v>
       </c>
     </row>
@@ -710,28 +860,585 @@
         <v>7</v>
       </c>
       <c r="E16" s="1">
-        <f>E13/E8</f>
+        <f t="shared" ref="E16:J16" si="4">E13/E8</f>
         <v>0.50138888888888888</v>
       </c>
       <c r="F16" s="1">
-        <f>F13/F8</f>
+        <f t="shared" si="4"/>
         <v>0.53167831262939969</v>
       </c>
       <c r="G16" s="1">
-        <f>G13/G8</f>
+        <f t="shared" si="4"/>
         <v>0.54234352941176467</v>
       </c>
       <c r="H16" s="1">
-        <f>H13/H8</f>
+        <f t="shared" si="4"/>
         <v>0.55681818181818177</v>
       </c>
       <c r="I16" s="1">
-        <f>I13/I8</f>
+        <f t="shared" si="4"/>
         <v>0.56690979381443307</v>
       </c>
       <c r="J16" s="1">
-        <f>J13/J8</f>
+        <f t="shared" si="4"/>
         <v>0.58054504504504512</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="5">E44*E45</f>
+        <v>6.7309999999999999</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46" si="6">F44*F45</f>
+        <v>6.05</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46" si="7">G44*G45</f>
+        <v>3.88</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46" si="8">H44*H45</f>
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46" si="9">I44*I45</f>
+        <v>1.55</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="10">J44*J45</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>600</v>
+      </c>
+      <c r="F48" s="2">
+        <v>570</v>
+      </c>
+      <c r="G48" s="2">
+        <v>457</v>
+      </c>
+      <c r="H48" s="2">
+        <v>347</v>
+      </c>
+      <c r="I48" s="2">
+        <v>290</v>
+      </c>
+      <c r="J48" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="11">E48/E49</f>
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50" si="12">F48/F49</f>
+        <v>5.7</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50" si="13">G48/G49</f>
+        <v>4.57</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50" si="14">H48/H49</f>
+        <v>3.47</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50" si="15">I48/I49</f>
+        <v>2.9</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50" si="16">J48/J49</f>
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ref="E51" si="17">E48*E50/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" ref="F51" si="18">F48*F50/1000</f>
+        <v>3.2490000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" ref="G51" si="19">G48*G50/1000</f>
+        <v>2.0884900000000002</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" ref="H51" si="20">H48*H50/1000</f>
+        <v>1.2040900000000001</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" ref="I51" si="21">I48*I50/1000</f>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" ref="J51" si="22">J48*J50/1000</f>
+        <v>0.51528999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" ref="E53:J53" si="23">E46-E51</f>
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="23"/>
+        <v>2.8009999999999997</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="23"/>
+        <v>1.7915099999999997</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="23"/>
+        <v>1.0159099999999996</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70900000000000007</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="23"/>
+        <v>0.46471000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" ref="E54:J54" si="24">E51/E46</f>
+        <v>0.53483880552666763</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="24"/>
+        <v>0.53702479338842979</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="24"/>
+        <v>0.53827061855670111</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="24"/>
+        <v>0.54238288288288294</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="24"/>
+        <v>0.54258064516129034</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="24"/>
+        <v>0.52580612244897951</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>6</v>
+      </c>
+      <c r="F89" s="2">
+        <v>5</v>
+      </c>
+      <c r="G89" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H89" s="2">
+        <v>4</v>
+      </c>
+      <c r="I89" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J89" s="2">
+        <v>3</v>
+      </c>
+      <c r="K89" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91:J91" si="25">E89*E90</f>
+        <v>1.92</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="25"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="25"/>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="25"/>
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="25"/>
+        <v>2.19</v>
+      </c>
+      <c r="K91">
+        <f t="shared" ref="K91" si="26">K89*K90</f>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>350</v>
+      </c>
+      <c r="F93" s="2">
+        <v>350</v>
+      </c>
+      <c r="G93" s="2">
+        <v>350</v>
+      </c>
+      <c r="H93" s="2">
+        <v>350</v>
+      </c>
+      <c r="I93" s="2">
+        <v>350</v>
+      </c>
+      <c r="J93" s="2">
+        <v>346</v>
+      </c>
+      <c r="K93" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>100</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>100</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95:J95" si="27">E93/E94</f>
+        <v>3.5</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="27"/>
+        <v>3.46</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95" si="28">K93/K94</f>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" ref="E96:J96" si="29">E93*E95/1000</f>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="29"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="29"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="29"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="29"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="J96" s="1">
+        <f t="shared" si="29"/>
+        <v>1.19716</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" ref="K96" si="30">K93*K95/1000</f>
+        <v>0.85263999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" ref="E98:J98" si="31">E91-E96</f>
+        <v>0.69499999999999984</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="31"/>
+        <v>0.72500000000000009</v>
+      </c>
+      <c r="G98" s="1">
+        <f t="shared" si="31"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="31"/>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="31"/>
+        <v>0.9099999999999997</v>
+      </c>
+      <c r="J98" s="1">
+        <f t="shared" si="31"/>
+        <v>0.99283999999999994</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" ref="K98" si="32">K91-K96</f>
+        <v>0.69736000000000009</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" ref="E99:J99" si="33">E96/E91</f>
+        <v>0.63802083333333337</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="33"/>
+        <v>0.62820512820512819</v>
+      </c>
+      <c r="G99" s="1">
+        <f t="shared" si="33"/>
+        <v>0.60493827160493829</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="33"/>
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="33"/>
+        <v>0.57377049180327877</v>
+      </c>
+      <c r="J99" s="1">
+        <f t="shared" si="33"/>
+        <v>0.546648401826484</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" ref="K99" si="34">K96/K91</f>
+        <v>0.55009032258064516</v>
       </c>
     </row>
   </sheetData>

--- a/doc/calculations.xlsx
+++ b/doc/calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwesTechnik\stepup-test\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A21D643-089E-441D-B65D-07BB17B3B54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A312017-694A-48BC-AC6D-B2D136103322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="300" windowWidth="18375" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="300" windowWidth="12705" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>U_in [V]</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>With "Level 7: Voltage regulation"</t>
+  </si>
+  <si>
+    <t>With regulation to 400V</t>
+  </si>
+  <si>
+    <t>with thick wires</t>
+  </si>
+  <si>
+    <t>Conclusion: No change. The wires are not the source of the loss.</t>
+  </si>
+  <si>
+    <t>reduce the on-time from 7µs to 3µs (because this causes less current)</t>
+  </si>
+  <si>
+    <t>increase on-time from 7µs to 10µs</t>
+  </si>
+  <si>
+    <t>Conclusion: Higher output with small input. Less efficiency.</t>
+  </si>
+  <si>
+    <t>Conclusion: less output voltage. Less efficiency at high input voltage. Better efficiency on lower input voltage</t>
+  </si>
+  <si>
+    <t>shunt bridged</t>
   </si>
 </sst>
 </file>
@@ -599,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K99"/>
+  <dimension ref="B2:M159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1390,7 @@
         <v>0.85263999999999995</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -1375,7 +1399,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1432,7 @@
         <v>0.69736000000000009</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>7</v>
       </c>
@@ -1439,6 +1463,1210 @@
       <c r="K99" s="1">
         <f t="shared" ref="K99" si="34">K96/K91</f>
         <v>0.55009032258064516</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
+        <v>6</v>
+      </c>
+      <c r="F104" s="2">
+        <v>5</v>
+      </c>
+      <c r="G104" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H104" s="2">
+        <v>4</v>
+      </c>
+      <c r="I104" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J104" s="2">
+        <v>3</v>
+      </c>
+      <c r="K104" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="I105" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K105" s="2">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ref="E106:K106" si="35">E104*E105</f>
+        <v>2.52</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="35"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="35"/>
+        <v>2.61</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="35"/>
+        <v>2.76</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="35"/>
+        <v>2.94</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="35"/>
+        <v>2.19</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="35"/>
+        <v>1.5249999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
+        <v>400</v>
+      </c>
+      <c r="F108" s="2">
+        <v>400</v>
+      </c>
+      <c r="G108" s="2">
+        <v>400</v>
+      </c>
+      <c r="H108" s="2">
+        <v>400</v>
+      </c>
+      <c r="I108" s="2">
+        <v>400</v>
+      </c>
+      <c r="J108" s="2">
+        <v>348</v>
+      </c>
+      <c r="K108" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>100</v>
+      </c>
+      <c r="K109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110:K110" si="36">E108/E109</f>
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="36"/>
+        <v>3.48</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="36"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" ref="E111:K111" si="37">E108*E110/1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" si="37"/>
+        <v>1.6</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" si="37"/>
+        <v>1.6</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="37"/>
+        <v>1.6</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="37"/>
+        <v>1.6</v>
+      </c>
+      <c r="J111" s="1">
+        <f t="shared" si="37"/>
+        <v>1.2110399999999999</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="37"/>
+        <v>0.82943999999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" ref="E113:K113" si="38">E106-E111</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="38"/>
+        <v>0.94999999999999973</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="38"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="38"/>
+        <v>1.1599999999999997</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="38"/>
+        <v>1.3399999999999999</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="38"/>
+        <v>0.97896000000000005</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="38"/>
+        <v>0.69555999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" ref="E114:K114" si="39">E111/E106</f>
+        <v>0.634920634920635</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="39"/>
+        <v>0.62745098039215697</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="39"/>
+        <v>0.61302681992337171</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="39"/>
+        <v>0.57971014492753636</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="39"/>
+        <v>0.54421768707482998</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="39"/>
+        <v>0.55298630136986293</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="39"/>
+        <v>0.54389508196721315</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2">
+        <v>6</v>
+      </c>
+      <c r="F117" s="2">
+        <v>5</v>
+      </c>
+      <c r="G117" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H117" s="2">
+        <v>4</v>
+      </c>
+      <c r="I117" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J117" s="2">
+        <v>3</v>
+      </c>
+      <c r="K117" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M118" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ref="E119:K119" si="40">E117*E118</f>
+        <v>2.52</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="40"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="40"/>
+        <v>2.61</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="40"/>
+        <v>2.76</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="40"/>
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="40"/>
+        <v>2.88</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <f t="shared" ref="M119" si="41">M117*M118</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2">
+        <v>400</v>
+      </c>
+      <c r="F121" s="2">
+        <v>400</v>
+      </c>
+      <c r="G121" s="2">
+        <v>400</v>
+      </c>
+      <c r="H121" s="2">
+        <v>400</v>
+      </c>
+      <c r="I121" s="2">
+        <v>400</v>
+      </c>
+      <c r="J121" s="2">
+        <v>393</v>
+      </c>
+      <c r="K121" s="2">
+        <v>328</v>
+      </c>
+      <c r="M121" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>100</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>100</v>
+      </c>
+      <c r="J122">
+        <v>100</v>
+      </c>
+      <c r="K122">
+        <v>100</v>
+      </c>
+      <c r="M122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123:K123" si="42">E121/E122</f>
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="42"/>
+        <v>3.93</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="42"/>
+        <v>3.28</v>
+      </c>
+      <c r="M123">
+        <f t="shared" ref="M123" si="43">M121/M122</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" ref="E124:K124" si="44">E121*E123/1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="44"/>
+        <v>1.6</v>
+      </c>
+      <c r="G124" s="1">
+        <f t="shared" si="44"/>
+        <v>1.6</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="44"/>
+        <v>1.6</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="44"/>
+        <v>1.6</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="44"/>
+        <v>1.5444899999999999</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="44"/>
+        <v>1.0758399999999999</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" ref="M124" si="45">M121*M123/1000</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" ref="E126:K126" si="46">E119-E124</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="46"/>
+        <v>0.94999999999999973</v>
+      </c>
+      <c r="G126" s="1">
+        <f t="shared" si="46"/>
+        <v>1.0099999999999998</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="46"/>
+        <v>1.1599999999999997</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="46"/>
+        <v>1.165</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="46"/>
+        <v>1.33551</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" si="46"/>
+        <v>0.92416000000000009</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" ref="M126" si="47">M119-M124</f>
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" ref="E127:K127" si="48">E124/E119</f>
+        <v>0.634920634920635</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="48"/>
+        <v>0.62745098039215697</v>
+      </c>
+      <c r="G127" s="1">
+        <f t="shared" si="48"/>
+        <v>0.61302681992337171</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="48"/>
+        <v>0.57971014492753636</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="48"/>
+        <v>0.57866184448462932</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="48"/>
+        <v>0.53628125000000004</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="48"/>
+        <v>0.53791999999999995</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" ref="M127" si="49">M124/M119</f>
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2">
+        <v>6</v>
+      </c>
+      <c r="F132" s="2">
+        <v>5</v>
+      </c>
+      <c r="G132" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H132" s="2">
+        <v>4</v>
+      </c>
+      <c r="I132" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J132" s="2">
+        <v>3</v>
+      </c>
+      <c r="K132" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="K133" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ref="E134:K134" si="50">E132*E133</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="50"/>
+        <v>2.1</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="50"/>
+        <v>1.71</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="50"/>
+        <v>1.36</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="50"/>
+        <v>1.05</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="50"/>
+        <v>0.78</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="50"/>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2">
+        <v>400</v>
+      </c>
+      <c r="F136" s="2">
+        <v>349</v>
+      </c>
+      <c r="G136" s="2">
+        <v>312</v>
+      </c>
+      <c r="H136" s="2">
+        <v>280</v>
+      </c>
+      <c r="I136" s="2">
+        <v>244</v>
+      </c>
+      <c r="J136" s="2">
+        <v>211</v>
+      </c>
+      <c r="K136" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>100</v>
+      </c>
+      <c r="F137">
+        <v>100</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+      <c r="H137">
+        <v>100</v>
+      </c>
+      <c r="I137">
+        <v>100</v>
+      </c>
+      <c r="J137">
+        <v>100</v>
+      </c>
+      <c r="K137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ref="E138:K138" si="51">E136/E137</f>
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="51"/>
+        <v>3.49</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="51"/>
+        <v>3.12</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="51"/>
+        <v>2.8</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="51"/>
+        <v>2.44</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="51"/>
+        <v>2.11</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="51"/>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1">
+        <f t="shared" ref="E139:K139" si="52">E136*E138/1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="52"/>
+        <v>1.21801</v>
+      </c>
+      <c r="G139" s="1">
+        <f t="shared" si="52"/>
+        <v>0.97344000000000008</v>
+      </c>
+      <c r="H139" s="1">
+        <f t="shared" si="52"/>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="52"/>
+        <v>0.59536</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" si="52"/>
+        <v>0.44520999999999999</v>
+      </c>
+      <c r="K139" s="1">
+        <f t="shared" si="52"/>
+        <v>0.30275999999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1">
+        <f t="shared" ref="E141:K141" si="53">E134-E139</f>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="53"/>
+        <v>0.88199000000000005</v>
+      </c>
+      <c r="G141" s="1">
+        <f t="shared" si="53"/>
+        <v>0.73655999999999988</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="53"/>
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="53"/>
+        <v>0.45464000000000004</v>
+      </c>
+      <c r="J141" s="1">
+        <f t="shared" si="53"/>
+        <v>0.33479000000000003</v>
+      </c>
+      <c r="K141" s="1">
+        <f t="shared" si="53"/>
+        <v>0.22224000000000005</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" ref="E142:K142" si="54">E139/E134</f>
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="54"/>
+        <v>0.58000476190476191</v>
+      </c>
+      <c r="G142" s="1">
+        <f t="shared" si="54"/>
+        <v>0.56926315789473692</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="54"/>
+        <v>0.57647058823529407</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="54"/>
+        <v>0.56700952380952374</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" si="54"/>
+        <v>0.57078205128205128</v>
+      </c>
+      <c r="K142" s="1">
+        <f t="shared" si="54"/>
+        <v>0.57668571428571425</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2">
+        <v>6</v>
+      </c>
+      <c r="F147" s="2">
+        <v>5</v>
+      </c>
+      <c r="G147" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H147" s="2">
+        <v>4</v>
+      </c>
+      <c r="I147" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J147" s="2">
+        <v>3</v>
+      </c>
+      <c r="K147" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ref="E149:K149" si="55">E147*E148</f>
+        <v>2.7</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="55"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="55"/>
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="55"/>
+        <v>2.68</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="55"/>
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="55"/>
+        <v>2.91</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="55"/>
+        <v>3.2250000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2">
+        <v>400</v>
+      </c>
+      <c r="F151" s="2">
+        <v>400</v>
+      </c>
+      <c r="G151" s="2">
+        <v>400</v>
+      </c>
+      <c r="H151" s="2">
+        <v>400</v>
+      </c>
+      <c r="I151" s="2">
+        <v>400</v>
+      </c>
+      <c r="J151" s="2">
+        <v>400</v>
+      </c>
+      <c r="K151" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+      <c r="F152">
+        <v>100</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+      <c r="H152">
+        <v>100</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>100</v>
+      </c>
+      <c r="K152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ref="E153:K153" si="56">E151/E152</f>
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1">
+        <f t="shared" ref="E154:K154" si="57">E151*E153/1000</f>
+        <v>1.6</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="57"/>
+        <v>1.6</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" si="57"/>
+        <v>1.6</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="57"/>
+        <v>1.6</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="57"/>
+        <v>1.6</v>
+      </c>
+      <c r="J154" s="1">
+        <f t="shared" si="57"/>
+        <v>1.6</v>
+      </c>
+      <c r="K154" s="1">
+        <f t="shared" si="57"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" ref="E156:K156" si="58">E149-E154</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="58"/>
+        <v>1.0500000000000003</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="58"/>
+        <v>1.0549999999999997</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="58"/>
+        <v>1.08</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="58"/>
+        <v>1.165</v>
+      </c>
+      <c r="J156" s="1">
+        <f t="shared" si="58"/>
+        <v>1.31</v>
+      </c>
+      <c r="K156" s="1">
+        <f t="shared" si="58"/>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" ref="E157:K157" si="59">E154/E149</f>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="59"/>
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="59"/>
+        <v>0.60263653483992474</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="59"/>
+        <v>0.59701492537313428</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="59"/>
+        <v>0.57866184448462932</v>
+      </c>
+      <c r="J157" s="1">
+        <f t="shared" si="59"/>
+        <v>0.54982817869415812</v>
+      </c>
+      <c r="K157" s="1">
+        <f t="shared" si="59"/>
+        <v>0.49612403100775193</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
